--- a/NCSdata/Wformat_NCSdata_ver1.1.xlsx
+++ b/NCSdata/Wformat_NCSdata_ver1.1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRMH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hong/Documents/GitHub/NCViewer/NCSdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888B1C57-7EC9-8641-BBBA-F96DC8F3455B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="12075"/>
+    <workbookView xWindow="6320" yWindow="5440" windowWidth="19300" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -37,70 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rt.Median Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rt_Ulnar_Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rt_Peroneal_Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rt_Tibial_Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rt_Median_Sensory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rt_Ulnar_Sensory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rt_Sural</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lt_Median_Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lt_Ulnar_Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lt_Peroneal_Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lt_Tibial_Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lt_Median_Sensory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lt_Ulnar_Sensory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lt_Sural</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rt-F-Wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lt-F-Wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hosp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,16 +496,32 @@
   <si>
     <t>L.SS.NCV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRM</t>
+  </si>
+  <si>
+    <t>HYH</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,29 +606,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -684,17 +616,44 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,678 +934,752 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DN13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="DN1" sqref="A1:DN1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="118" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="G1" s="13" t="s">
+    <row r="1" spans="1:118">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
+      <c r="S1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="AU1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="CY1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
-      <c r="DF1" s="13"/>
-      <c r="DG1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="DH1" s="13"/>
-      <c r="DI1" s="13"/>
-      <c r="DJ1" s="13"/>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="DN1" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="11" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="4" t="s">
+    <row r="2" spans="1:118">
+      <c r="A2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43748</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="2">
         <v>47</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW2" s="3" t="s">
+      <c r="G2" s="2">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="H2" s="2">
+        <v>101.51515151515152</v>
+      </c>
+      <c r="I2" s="2">
+        <v>180</v>
+      </c>
+      <c r="J2" s="2">
+        <v>136.36363636363637</v>
+      </c>
+      <c r="K2" s="2">
+        <v>180</v>
+      </c>
+      <c r="L2" s="2">
+        <v>100</v>
+      </c>
+      <c r="M2" s="2">
+        <v>136.36363636363637</v>
+      </c>
+      <c r="N2" s="2">
+        <v>180</v>
+      </c>
+      <c r="O2" s="2">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>108.33333333333333</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>121.21212121212122</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>180</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>106.06060606060606</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>180</v>
+      </c>
+      <c r="BP2" s="2">
         <v>90</v>
       </c>
-      <c r="BX2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="CA2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="CB2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="CC2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="CG2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CH2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CI2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CM2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CO2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="CQ2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="CR2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="CS2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="CT2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="CU2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CV2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="CW2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CX2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="CZ2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="DA2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="DB2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="DC2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="DD2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="DE2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="DF2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="DG2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="DH2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="DI2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="DJ2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="DK2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="DL2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="DM2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="DN2" s="4" t="s">
-        <v>133</v>
+      <c r="BQ2" s="2">
+        <v>106.06060606060606</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>180</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>81.818181818181827</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CO2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CU2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DG2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DH2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
+    <row r="3" spans="1:118">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
+    <row r="13" spans="1:118">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="CU1:CX1"/>
-    <mergeCell ref="CY1:DF1"/>
-    <mergeCell ref="DG1:DL1"/>
-    <mergeCell ref="DM1:DN1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BS1"/>
-    <mergeCell ref="BT1:CE1"/>
-    <mergeCell ref="CF1:CN1"/>
-    <mergeCell ref="CO1:CT1"/>
-    <mergeCell ref="AU1:BB1"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="P1:AA1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>